--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54754.01604202898</v>
+        <v>10896049.19236375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54754.01604202898</v>
+        <v>10896049.19236375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4449.338284767373</v>
+        <v>643951.542675752</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4449.338284767373</v>
+        <v>643951.542675752</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342588944.537212</v>
+        <v>54917817.20406586</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11362.21066796031</v>
+        <v>1253634.620387712</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21757.37984591784</v>
+        <v>2355589.530678731</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32152.54902387536</v>
+        <v>3457544.440969753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42901.52345854351</v>
+        <v>4545463.988221274</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53447.06529235247</v>
+        <v>5647418.898512295</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63992.60712616142</v>
+        <v>6749373.808803314</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74538.14895997036</v>
+        <v>7851328.71909433</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85083.69079377933</v>
+        <v>8953283.629385348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95795.92017794242</v>
+        <v>10033890.91158636</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106341.4620117514</v>
+        <v>11135845.82187737</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116887.0038455603</v>
+        <v>12237800.7321684</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127275.4249121005</v>
+        <v>13332443.37740892</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137700.5910291458</v>
+        <v>14434398.28769995</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148525.1035034113</v>
+        <v>15477402.40531273</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159830.0961912383</v>
+        <v>16455620.3245255</v>
       </c>
     </row>
   </sheetData>
